--- a/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify.xlsx
+++ b/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput1" sheetId="1" r:id="rId1"/>
@@ -802,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
